--- a/uploads/file9.xlsx
+++ b/uploads/file9.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp backup\htdocs\insurance-calculator-scraper\uploads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Race</t>
   </si>
@@ -225,22 +216,50 @@
   </si>
   <si>
     <t>Tier-Krankenversicherung 0€ Premium Plus + Zahn Price Increase 3</t>
+  </si>
+  <si>
+    <t>Australien Heeler</t>
+  </si>
+  <si>
+    <t>2026-08-02</t>
+  </si>
+  <si>
+    <t>2028-08-02</t>
+  </si>
+  <si>
+    <t>2030-08-02</t>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+  </si>
+  <si>
+    <t>2027-08-02</t>
+  </si>
+  <si>
+    <t>2029-08-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -268,22 +287,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -330,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -365,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -409,156 +420,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" customHeight="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +799,424 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:67">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>7.59</v>
+      </c>
+      <c r="D2">
+        <v>14.14</v>
+      </c>
+      <c r="E2">
+        <v>15.79</v>
+      </c>
+      <c r="F2">
+        <v>14.51</v>
+      </c>
+      <c r="G2">
+        <v>16.16</v>
+      </c>
+      <c r="H2">
+        <v>18.2</v>
+      </c>
+      <c r="I2">
+        <v>20.95</v>
+      </c>
+      <c r="J2">
+        <v>18.81</v>
+      </c>
+      <c r="K2">
+        <v>21.56</v>
+      </c>
+      <c r="L2">
+        <v>36.45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2">
+        <v>40.0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2">
+        <v>44.85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2">
+        <v>49.3</v>
+      </c>
+      <c r="S2">
+        <v>37.81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2">
+        <v>41.35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2">
+        <v>46.21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2">
+        <v>50.66</v>
+      </c>
+      <c r="Z2">
+        <v>37.76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2">
+        <v>41.47</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2">
+        <v>46.51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2">
+        <v>51.16</v>
+      </c>
+      <c r="AG2">
+        <v>39.12</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2">
+        <v>42.83</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2">
+        <v>47.86</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2">
+        <v>52.51</v>
+      </c>
+      <c r="AN2">
+        <v>54.97</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2">
+        <v>60.57</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2">
+        <v>68.29</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2">
+        <v>75.29</v>
+      </c>
+      <c r="AU2">
+        <v>57.66</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2">
+        <v>63.26</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY2">
+        <v>70.98</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2">
+        <v>77.98</v>
+      </c>
+      <c r="BB2">
+        <v>56.81</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD2">
+        <v>62.63</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF2">
+        <v>70.6</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH2">
+        <v>77.87</v>
+      </c>
+      <c r="BI2">
+        <v>59.5</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK2">
+        <v>65.32</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM2">
+        <v>73.29</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7.93</v>
+      </c>
+      <c r="D3">
+        <v>14.85</v>
+      </c>
+      <c r="E3">
+        <v>16.5</v>
+      </c>
+      <c r="F3">
+        <v>15.23</v>
+      </c>
+      <c r="G3">
+        <v>16.88</v>
+      </c>
+      <c r="H3">
+        <v>19.14</v>
+      </c>
+      <c r="I3">
+        <v>21.89</v>
+      </c>
+      <c r="J3">
+        <v>19.8</v>
+      </c>
+      <c r="K3">
+        <v>22.55</v>
+      </c>
+      <c r="L3">
+        <v>36.45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3">
+        <v>40.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3">
+        <v>44.85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3">
+        <v>49.3</v>
+      </c>
+      <c r="S3">
+        <v>37.81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3">
+        <v>41.35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3">
+        <v>46.21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3">
+        <v>50.66</v>
+      </c>
+      <c r="Z3">
+        <v>37.76</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3">
+        <v>41.47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3">
+        <v>46.51</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3">
+        <v>51.16</v>
+      </c>
+      <c r="AG3">
+        <v>39.12</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3">
+        <v>42.83</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3">
+        <v>47.86</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3">
+        <v>52.51</v>
+      </c>
+      <c r="AN3">
+        <v>54.97</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3">
+        <v>60.57</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR3">
+        <v>68.29</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3">
+        <v>75.29</v>
+      </c>
+      <c r="AU3">
+        <v>57.66</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3">
+        <v>63.26</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY3">
+        <v>70.98</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA3">
+        <v>77.98</v>
+      </c>
+      <c r="BB3">
+        <v>56.81</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3">
+        <v>62.63</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF3">
+        <v>70.6</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH3">
+        <v>77.87</v>
+      </c>
+      <c r="BI3">
+        <v>59.5</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK3">
+        <v>65.32</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM3">
+        <v>73.29</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3">
+        <v>80.56</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>